--- a/innovation moderate/produccion-energetica/m223296.xlsx
+++ b/innovation moderate/produccion-energetica/m223296.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/uo294557_uniovi_es/Documents/Hackathon/hackathon/innovation moderate/produccion-energetica/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_C79CC5FFF6BA3D4DD1BEC114DF2528E350C391B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5D0DC02-E77E-51CC-B6C7-EEDE72CAF2FD}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="EnergiaCaldera_M223296.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="EnergiaCaldera_M223296.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -3616,15 +3625,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -3635,36 +3645,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -3854,20 +3871,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B600"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3875,7 +3895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3883,7 +3903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3891,7 +3911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3899,7 +3919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3907,7 +3927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3915,7 +3935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3923,7 +3943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3931,7 +3951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3939,7 +3959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3947,7 +3967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3955,7 +3975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3963,7 +3983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -3971,7 +3991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -3979,7 +3999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -3987,7 +4007,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -3995,7 +4015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -4003,7 +4023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -4011,7 +4031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -4019,7 +4039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -4027,7 +4047,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -4035,7 +4055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -4043,7 +4063,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -4051,7 +4071,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -4059,7 +4079,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -4067,7 +4087,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -4075,7 +4095,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -4083,7 +4103,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -4091,7 +4111,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -4099,7 +4119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -4107,7 +4127,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -4115,7 +4135,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -4123,7 +4143,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -4131,7 +4151,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -4139,7 +4159,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -4147,7 +4167,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -4155,7 +4175,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -4163,7 +4183,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -4171,7 +4191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -4179,7 +4199,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -4187,7 +4207,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -4195,7 +4215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -4203,7 +4223,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -4211,7 +4231,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -4219,7 +4239,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -4227,7 +4247,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -4235,7 +4255,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -4243,7 +4263,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -4251,7 +4271,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -4259,7 +4279,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -4267,7 +4287,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -4275,7 +4295,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -4283,7 +4303,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -4291,7 +4311,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -4299,7 +4319,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -4307,7 +4327,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -4315,7 +4335,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -4323,7 +4343,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -4331,7 +4351,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -4339,7 +4359,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -4347,7 +4367,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -4355,7 +4375,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -4363,7 +4383,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -4371,7 +4391,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -4379,7 +4399,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -4387,7 +4407,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -4395,7 +4415,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -4403,7 +4423,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -4411,7 +4431,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -4419,7 +4439,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -4427,7 +4447,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -4435,7 +4455,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -4443,7 +4463,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -4451,7 +4471,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -4459,7 +4479,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -4467,7 +4487,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -4475,7 +4495,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
@@ -4483,7 +4503,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -4491,7 +4511,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -4499,7 +4519,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -4507,7 +4527,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -4515,7 +4535,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -4523,7 +4543,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -4531,7 +4551,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
@@ -4539,7 +4559,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
@@ -4547,7 +4567,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
@@ -4555,7 +4575,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
@@ -4563,7 +4583,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -4571,7 +4591,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
@@ -4579,7 +4599,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
@@ -4587,7 +4607,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
@@ -4595,7 +4615,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
@@ -4603,7 +4623,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
@@ -4611,7 +4631,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
@@ -4619,7 +4639,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
@@ -4627,7 +4647,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
@@ -4635,7 +4655,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
@@ -4643,7 +4663,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>194</v>
       </c>
@@ -4651,7 +4671,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>196</v>
       </c>
@@ -4659,7 +4679,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>198</v>
       </c>
@@ -4667,7 +4687,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>200</v>
       </c>
@@ -4675,7 +4695,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>202</v>
       </c>
@@ -4683,7 +4703,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>204</v>
       </c>
@@ -4691,7 +4711,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>206</v>
       </c>
@@ -4699,7 +4719,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>208</v>
       </c>
@@ -4707,7 +4727,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>210</v>
       </c>
@@ -4715,7 +4735,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>212</v>
       </c>
@@ -4723,7 +4743,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>214</v>
       </c>
@@ -4731,7 +4751,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>216</v>
       </c>
@@ -4739,7 +4759,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>218</v>
       </c>
@@ -4747,7 +4767,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>220</v>
       </c>
@@ -4755,7 +4775,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>222</v>
       </c>
@@ -4763,7 +4783,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>224</v>
       </c>
@@ -4771,7 +4791,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>226</v>
       </c>
@@ -4779,7 +4799,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>228</v>
       </c>
@@ -4787,7 +4807,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>230</v>
       </c>
@@ -4795,7 +4815,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>232</v>
       </c>
@@ -4803,7 +4823,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>234</v>
       </c>
@@ -4811,7 +4831,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>236</v>
       </c>
@@ -4819,7 +4839,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>238</v>
       </c>
@@ -4827,7 +4847,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>240</v>
       </c>
@@ -4835,7 +4855,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>242</v>
       </c>
@@ -4843,7 +4863,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>244</v>
       </c>
@@ -4851,7 +4871,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>246</v>
       </c>
@@ -4859,7 +4879,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>248</v>
       </c>
@@ -4867,7 +4887,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>250</v>
       </c>
@@ -4875,7 +4895,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>252</v>
       </c>
@@ -4883,7 +4903,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>254</v>
       </c>
@@ -4891,7 +4911,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>256</v>
       </c>
@@ -4899,7 +4919,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>258</v>
       </c>
@@ -4907,7 +4927,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>260</v>
       </c>
@@ -4915,7 +4935,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>262</v>
       </c>
@@ -4923,7 +4943,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>264</v>
       </c>
@@ -4931,7 +4951,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>266</v>
       </c>
@@ -4939,7 +4959,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>268</v>
       </c>
@@ -4947,7 +4967,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>270</v>
       </c>
@@ -4955,7 +4975,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>272</v>
       </c>
@@ -4963,7 +4983,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>274</v>
       </c>
@@ -4971,7 +4991,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>276</v>
       </c>
@@ -4979,7 +4999,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>278</v>
       </c>
@@ -4987,7 +5007,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>280</v>
       </c>
@@ -4995,7 +5015,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>282</v>
       </c>
@@ -5003,7 +5023,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>284</v>
       </c>
@@ -5011,7 +5031,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>286</v>
       </c>
@@ -5019,7 +5039,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>288</v>
       </c>
@@ -5027,7 +5047,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>290</v>
       </c>
@@ -5035,7 +5055,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>292</v>
       </c>
@@ -5043,7 +5063,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>294</v>
       </c>
@@ -5051,7 +5071,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>296</v>
       </c>
@@ -5059,7 +5079,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>298</v>
       </c>
@@ -5067,7 +5087,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>300</v>
       </c>
@@ -5075,7 +5095,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>302</v>
       </c>
@@ -5083,7 +5103,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>304</v>
       </c>
@@ -5091,7 +5111,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>306</v>
       </c>
@@ -5099,7 +5119,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>308</v>
       </c>
@@ -5107,7 +5127,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>310</v>
       </c>
@@ -5115,7 +5135,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>312</v>
       </c>
@@ -5123,7 +5143,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>314</v>
       </c>
@@ -5131,7 +5151,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>316</v>
       </c>
@@ -5139,7 +5159,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>318</v>
       </c>
@@ -5147,7 +5167,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>320</v>
       </c>
@@ -5155,7 +5175,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>322</v>
       </c>
@@ -5163,7 +5183,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>324</v>
       </c>
@@ -5171,7 +5191,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>326</v>
       </c>
@@ -5179,7 +5199,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>328</v>
       </c>
@@ -5187,7 +5207,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>330</v>
       </c>
@@ -5195,7 +5215,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>332</v>
       </c>
@@ -5203,7 +5223,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>334</v>
       </c>
@@ -5211,7 +5231,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>336</v>
       </c>
@@ -5219,7 +5239,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>338</v>
       </c>
@@ -5227,7 +5247,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>340</v>
       </c>
@@ -5235,7 +5255,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>342</v>
       </c>
@@ -5243,7 +5263,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>344</v>
       </c>
@@ -5251,7 +5271,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>346</v>
       </c>
@@ -5259,7 +5279,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>348</v>
       </c>
@@ -5267,7 +5287,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>350</v>
       </c>
@@ -5275,7 +5295,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>352</v>
       </c>
@@ -5283,7 +5303,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>354</v>
       </c>
@@ -5291,7 +5311,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>356</v>
       </c>
@@ -5299,7 +5319,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>358</v>
       </c>
@@ -5307,7 +5327,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>360</v>
       </c>
@@ -5315,7 +5335,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>362</v>
       </c>
@@ -5323,7 +5343,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>364</v>
       </c>
@@ -5331,7 +5351,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>366</v>
       </c>
@@ -5339,7 +5359,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>368</v>
       </c>
@@ -5347,7 +5367,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>370</v>
       </c>
@@ -5355,7 +5375,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>372</v>
       </c>
@@ -5363,7 +5383,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>374</v>
       </c>
@@ -5371,7 +5391,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>376</v>
       </c>
@@ -5379,7 +5399,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>378</v>
       </c>
@@ -5387,7 +5407,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>380</v>
       </c>
@@ -5395,7 +5415,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>382</v>
       </c>
@@ -5403,7 +5423,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>384</v>
       </c>
@@ -5411,7 +5431,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>386</v>
       </c>
@@ -5419,7 +5439,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>388</v>
       </c>
@@ -5427,7 +5447,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>390</v>
       </c>
@@ -5435,7 +5455,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>392</v>
       </c>
@@ -5443,7 +5463,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>394</v>
       </c>
@@ -5451,7 +5471,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>396</v>
       </c>
@@ -5459,7 +5479,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>398</v>
       </c>
@@ -5467,7 +5487,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>400</v>
       </c>
@@ -5475,7 +5495,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>402</v>
       </c>
@@ -5483,7 +5503,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>404</v>
       </c>
@@ -5491,7 +5511,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>406</v>
       </c>
@@ -5499,7 +5519,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>408</v>
       </c>
@@ -5507,7 +5527,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>410</v>
       </c>
@@ -5515,7 +5535,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>412</v>
       </c>
@@ -5523,7 +5543,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>414</v>
       </c>
@@ -5531,7 +5551,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>416</v>
       </c>
@@ -5539,7 +5559,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>418</v>
       </c>
@@ -5547,7 +5567,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>420</v>
       </c>
@@ -5555,7 +5575,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>422</v>
       </c>
@@ -5563,7 +5583,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>424</v>
       </c>
@@ -5571,7 +5591,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>426</v>
       </c>
@@ -5579,7 +5599,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>428</v>
       </c>
@@ -5587,7 +5607,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>430</v>
       </c>
@@ -5595,7 +5615,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>432</v>
       </c>
@@ -5603,7 +5623,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>434</v>
       </c>
@@ -5611,7 +5631,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>436</v>
       </c>
@@ -5619,7 +5639,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>438</v>
       </c>
@@ -5627,7 +5647,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>440</v>
       </c>
@@ -5635,7 +5655,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>442</v>
       </c>
@@ -5643,7 +5663,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>444</v>
       </c>
@@ -5651,7 +5671,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>446</v>
       </c>
@@ -5659,7 +5679,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>448</v>
       </c>
@@ -5667,7 +5687,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>450</v>
       </c>
@@ -5675,7 +5695,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>452</v>
       </c>
@@ -5683,7 +5703,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>454</v>
       </c>
@@ -5691,7 +5711,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>456</v>
       </c>
@@ -5699,7 +5719,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>458</v>
       </c>
@@ -5707,7 +5727,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>460</v>
       </c>
@@ -5715,7 +5735,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>462</v>
       </c>
@@ -5723,7 +5743,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>464</v>
       </c>
@@ -5731,7 +5751,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>466</v>
       </c>
@@ -5739,7 +5759,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>468</v>
       </c>
@@ -5747,7 +5767,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>470</v>
       </c>
@@ -5755,7 +5775,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>472</v>
       </c>
@@ -5763,7 +5783,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>474</v>
       </c>
@@ -5771,7 +5791,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>476</v>
       </c>
@@ -5779,7 +5799,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>478</v>
       </c>
@@ -5787,7 +5807,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>480</v>
       </c>
@@ -5795,7 +5815,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>482</v>
       </c>
@@ -5803,7 +5823,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>484</v>
       </c>
@@ -5811,7 +5831,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>486</v>
       </c>
@@ -5819,7 +5839,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>488</v>
       </c>
@@ -5827,7 +5847,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>490</v>
       </c>
@@ -5835,7 +5855,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>492</v>
       </c>
@@ -5843,7 +5863,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>494</v>
       </c>
@@ -5851,7 +5871,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>496</v>
       </c>
@@ -5859,7 +5879,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>498</v>
       </c>
@@ -5867,7 +5887,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>500</v>
       </c>
@@ -5875,7 +5895,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>502</v>
       </c>
@@ -5883,7 +5903,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>504</v>
       </c>
@@ -5891,7 +5911,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>506</v>
       </c>
@@ -5899,7 +5919,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>508</v>
       </c>
@@ -5907,7 +5927,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>510</v>
       </c>
@@ -5915,7 +5935,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>512</v>
       </c>
@@ -5923,7 +5943,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>514</v>
       </c>
@@ -5931,7 +5951,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>516</v>
       </c>
@@ -5939,7 +5959,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>518</v>
       </c>
@@ -5947,7 +5967,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>520</v>
       </c>
@@ -5955,7 +5975,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>522</v>
       </c>
@@ -5963,7 +5983,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>524</v>
       </c>
@@ -5971,7 +5991,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>526</v>
       </c>
@@ -5979,7 +5999,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>528</v>
       </c>
@@ -5987,7 +6007,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>530</v>
       </c>
@@ -5995,7 +6015,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>532</v>
       </c>
@@ -6003,7 +6023,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>534</v>
       </c>
@@ -6011,7 +6031,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>536</v>
       </c>
@@ -6019,7 +6039,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>538</v>
       </c>
@@ -6027,7 +6047,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>540</v>
       </c>
@@ -6035,7 +6055,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>542</v>
       </c>
@@ -6043,7 +6063,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>544</v>
       </c>
@@ -6051,7 +6071,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>546</v>
       </c>
@@ -6059,7 +6079,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>548</v>
       </c>
@@ -6067,7 +6087,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>550</v>
       </c>
@@ -6075,7 +6095,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>552</v>
       </c>
@@ -6083,7 +6103,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>554</v>
       </c>
@@ -6091,7 +6111,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>556</v>
       </c>
@@ -6099,7 +6119,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>558</v>
       </c>
@@ -6107,7 +6127,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>560</v>
       </c>
@@ -6115,7 +6135,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>562</v>
       </c>
@@ -6123,7 +6143,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>564</v>
       </c>
@@ -6131,7 +6151,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>566</v>
       </c>
@@ -6139,7 +6159,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>568</v>
       </c>
@@ -6147,7 +6167,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>570</v>
       </c>
@@ -6155,7 +6175,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>572</v>
       </c>
@@ -6163,7 +6183,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>574</v>
       </c>
@@ -6171,7 +6191,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>576</v>
       </c>
@@ -6179,7 +6199,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>578</v>
       </c>
@@ -6187,7 +6207,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>580</v>
       </c>
@@ -6195,7 +6215,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>582</v>
       </c>
@@ -6203,7 +6223,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>584</v>
       </c>
@@ -6211,7 +6231,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>586</v>
       </c>
@@ -6219,7 +6239,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>588</v>
       </c>
@@ -6227,7 +6247,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>590</v>
       </c>
@@ -6235,7 +6255,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>592</v>
       </c>
@@ -6243,7 +6263,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>594</v>
       </c>
@@ -6251,7 +6271,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>596</v>
       </c>
@@ -6259,7 +6279,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>598</v>
       </c>
@@ -6267,7 +6287,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>600</v>
       </c>
@@ -6275,7 +6295,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>602</v>
       </c>
@@ -6283,7 +6303,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>604</v>
       </c>
@@ -6291,7 +6311,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>606</v>
       </c>
@@ -6299,7 +6319,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>608</v>
       </c>
@@ -6307,7 +6327,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>610</v>
       </c>
@@ -6315,7 +6335,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>612</v>
       </c>
@@ -6323,7 +6343,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>614</v>
       </c>
@@ -6331,7 +6351,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>616</v>
       </c>
@@ -6339,7 +6359,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>618</v>
       </c>
@@ -6347,7 +6367,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>620</v>
       </c>
@@ -6355,7 +6375,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>622</v>
       </c>
@@ -6363,7 +6383,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>624</v>
       </c>
@@ -6371,7 +6391,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>626</v>
       </c>
@@ -6379,7 +6399,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>628</v>
       </c>
@@ -6387,7 +6407,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>630</v>
       </c>
@@ -6395,7 +6415,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>632</v>
       </c>
@@ -6403,7 +6423,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>634</v>
       </c>
@@ -6411,7 +6431,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>636</v>
       </c>
@@ -6419,7 +6439,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>638</v>
       </c>
@@ -6427,7 +6447,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>640</v>
       </c>
@@ -6435,7 +6455,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>642</v>
       </c>
@@ -6443,7 +6463,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>644</v>
       </c>
@@ -6451,7 +6471,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>646</v>
       </c>
@@ -6459,7 +6479,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>648</v>
       </c>
@@ -6467,7 +6487,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>650</v>
       </c>
@@ -6475,7 +6495,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>652</v>
       </c>
@@ -6483,7 +6503,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>654</v>
       </c>
@@ -6491,7 +6511,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>656</v>
       </c>
@@ -6499,7 +6519,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>658</v>
       </c>
@@ -6507,7 +6527,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>660</v>
       </c>
@@ -6515,7 +6535,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>662</v>
       </c>
@@ -6523,7 +6543,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>664</v>
       </c>
@@ -6531,7 +6551,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>666</v>
       </c>
@@ -6539,7 +6559,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>668</v>
       </c>
@@ -6547,7 +6567,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>670</v>
       </c>
@@ -6555,7 +6575,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>672</v>
       </c>
@@ -6563,7 +6583,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>674</v>
       </c>
@@ -6571,7 +6591,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>676</v>
       </c>
@@ -6579,7 +6599,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>678</v>
       </c>
@@ -6587,7 +6607,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>680</v>
       </c>
@@ -6595,7 +6615,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>682</v>
       </c>
@@ -6603,7 +6623,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>684</v>
       </c>
@@ -6611,7 +6631,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>686</v>
       </c>
@@ -6619,7 +6639,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>688</v>
       </c>
@@ -6627,7 +6647,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>690</v>
       </c>
@@ -6635,7 +6655,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>692</v>
       </c>
@@ -6643,7 +6663,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>694</v>
       </c>
@@ -6651,7 +6671,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>696</v>
       </c>
@@ -6659,7 +6679,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>698</v>
       </c>
@@ -6667,7 +6687,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
         <v>700</v>
       </c>
@@ -6675,7 +6695,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
         <v>702</v>
       </c>
@@ -6683,7 +6703,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
         <v>704</v>
       </c>
@@ -6691,7 +6711,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>706</v>
       </c>
@@ -6699,7 +6719,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
         <v>708</v>
       </c>
@@ -6707,7 +6727,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>710</v>
       </c>
@@ -6715,7 +6735,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>712</v>
       </c>
@@ -6723,7 +6743,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>714</v>
       </c>
@@ -6731,7 +6751,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>716</v>
       </c>
@@ -6739,7 +6759,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>718</v>
       </c>
@@ -6747,7 +6767,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>720</v>
       </c>
@@ -6755,7 +6775,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>722</v>
       </c>
@@ -6763,7 +6783,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>724</v>
       </c>
@@ -6771,7 +6791,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>726</v>
       </c>
@@ -6779,7 +6799,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>728</v>
       </c>
@@ -6787,7 +6807,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>730</v>
       </c>
@@ -6795,7 +6815,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>732</v>
       </c>
@@ -6803,7 +6823,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>734</v>
       </c>
@@ -6811,7 +6831,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
         <v>736</v>
       </c>
@@ -6819,7 +6839,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>738</v>
       </c>
@@ -6827,7 +6847,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
         <v>740</v>
       </c>
@@ -6835,7 +6855,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
         <v>742</v>
       </c>
@@ -6843,7 +6863,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>744</v>
       </c>
@@ -6851,7 +6871,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>746</v>
       </c>
@@ -6859,7 +6879,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>748</v>
       </c>
@@ -6867,7 +6887,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>750</v>
       </c>
@@ -6875,7 +6895,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>752</v>
       </c>
@@ -6883,7 +6903,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>754</v>
       </c>
@@ -6891,7 +6911,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>756</v>
       </c>
@@ -6899,7 +6919,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>758</v>
       </c>
@@ -6907,7 +6927,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>760</v>
       </c>
@@ -6915,7 +6935,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>762</v>
       </c>
@@ -6923,7 +6943,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>764</v>
       </c>
@@ -6931,7 +6951,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>766</v>
       </c>
@@ -6939,7 +6959,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>768</v>
       </c>
@@ -6947,7 +6967,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>770</v>
       </c>
@@ -6955,7 +6975,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>772</v>
       </c>
@@ -6963,7 +6983,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>774</v>
       </c>
@@ -6971,7 +6991,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>776</v>
       </c>
@@ -6979,7 +6999,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>778</v>
       </c>
@@ -6987,7 +7007,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>780</v>
       </c>
@@ -6995,7 +7015,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>782</v>
       </c>
@@ -7003,7 +7023,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>784</v>
       </c>
@@ -7011,7 +7031,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>786</v>
       </c>
@@ -7019,7 +7039,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>788</v>
       </c>
@@ -7027,7 +7047,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>790</v>
       </c>
@@ -7035,7 +7055,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>792</v>
       </c>
@@ -7043,7 +7063,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>794</v>
       </c>
@@ -7051,7 +7071,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>796</v>
       </c>
@@ -7059,7 +7079,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>798</v>
       </c>
@@ -7067,7 +7087,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>800</v>
       </c>
@@ -7075,7 +7095,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>802</v>
       </c>
@@ -7083,7 +7103,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>804</v>
       </c>
@@ -7091,7 +7111,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
         <v>806</v>
       </c>
@@ -7099,7 +7119,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>808</v>
       </c>
@@ -7107,7 +7127,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
         <v>810</v>
       </c>
@@ -7115,7 +7135,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
         <v>812</v>
       </c>
@@ -7123,7 +7143,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
         <v>814</v>
       </c>
@@ -7131,7 +7151,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
         <v>816</v>
       </c>
@@ -7139,7 +7159,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
         <v>818</v>
       </c>
@@ -7147,7 +7167,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>820</v>
       </c>
@@ -7155,7 +7175,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>822</v>
       </c>
@@ -7163,7 +7183,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>824</v>
       </c>
@@ -7171,7 +7191,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>826</v>
       </c>
@@ -7179,7 +7199,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
         <v>828</v>
       </c>
@@ -7187,7 +7207,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
         <v>830</v>
       </c>
@@ -7195,7 +7215,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
         <v>832</v>
       </c>
@@ -7203,7 +7223,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
         <v>834</v>
       </c>
@@ -7211,7 +7231,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
         <v>836</v>
       </c>
@@ -7219,7 +7239,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
         <v>838</v>
       </c>
@@ -7227,7 +7247,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
         <v>840</v>
       </c>
@@ -7235,7 +7255,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
         <v>842</v>
       </c>
@@ -7243,7 +7263,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
         <v>844</v>
       </c>
@@ -7251,7 +7271,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
         <v>846</v>
       </c>
@@ -7259,7 +7279,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
         <v>848</v>
       </c>
@@ -7267,7 +7287,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
         <v>850</v>
       </c>
@@ -7275,7 +7295,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
         <v>852</v>
       </c>
@@ -7283,7 +7303,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
         <v>854</v>
       </c>
@@ -7291,7 +7311,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
         <v>856</v>
       </c>
@@ -7299,7 +7319,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
         <v>858</v>
       </c>
@@ -7307,7 +7327,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
         <v>860</v>
       </c>
@@ -7315,7 +7335,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
         <v>862</v>
       </c>
@@ -7323,7 +7343,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
         <v>864</v>
       </c>
@@ -7331,7 +7351,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
         <v>866</v>
       </c>
@@ -7339,7 +7359,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
         <v>868</v>
       </c>
@@ -7347,7 +7367,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
         <v>870</v>
       </c>
@@ -7355,7 +7375,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
         <v>872</v>
       </c>
@@ -7363,7 +7383,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
         <v>874</v>
       </c>
@@ -7371,7 +7391,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
         <v>876</v>
       </c>
@@ -7379,7 +7399,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
         <v>878</v>
       </c>
@@ -7387,7 +7407,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
         <v>880</v>
       </c>
@@ -7395,7 +7415,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
         <v>882</v>
       </c>
@@ -7403,7 +7423,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
         <v>884</v>
       </c>
@@ -7411,7 +7431,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
         <v>886</v>
       </c>
@@ -7419,7 +7439,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
         <v>888</v>
       </c>
@@ -7427,7 +7447,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
         <v>890</v>
       </c>
@@ -7435,7 +7455,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
         <v>892</v>
       </c>
@@ -7443,7 +7463,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
         <v>894</v>
       </c>
@@ -7451,7 +7471,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
         <v>896</v>
       </c>
@@ -7459,7 +7479,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
         <v>898</v>
       </c>
@@ -7467,7 +7487,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
         <v>900</v>
       </c>
@@ -7475,7 +7495,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
         <v>902</v>
       </c>
@@ -7483,7 +7503,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
         <v>904</v>
       </c>
@@ -7491,7 +7511,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
         <v>906</v>
       </c>
@@ -7499,7 +7519,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>908</v>
       </c>
@@ -7507,7 +7527,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
         <v>910</v>
       </c>
@@ -7515,7 +7535,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
         <v>912</v>
       </c>
@@ -7523,7 +7543,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
         <v>914</v>
       </c>
@@ -7531,7 +7551,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
         <v>916</v>
       </c>
@@ -7539,7 +7559,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
         <v>918</v>
       </c>
@@ -7547,7 +7567,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
         <v>920</v>
       </c>
@@ -7555,7 +7575,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
         <v>922</v>
       </c>
@@ -7563,7 +7583,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
         <v>924</v>
       </c>
@@ -7571,7 +7591,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
         <v>926</v>
       </c>
@@ -7579,7 +7599,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
         <v>928</v>
       </c>
@@ -7587,7 +7607,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
         <v>930</v>
       </c>
@@ -7595,7 +7615,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
         <v>932</v>
       </c>
@@ -7603,7 +7623,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
         <v>934</v>
       </c>
@@ -7611,7 +7631,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
         <v>936</v>
       </c>
@@ -7619,7 +7639,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
         <v>938</v>
       </c>
@@ -7627,7 +7647,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
         <v>940</v>
       </c>
@@ -7635,7 +7655,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
         <v>942</v>
       </c>
@@ -7643,7 +7663,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
         <v>944</v>
       </c>
@@ -7651,7 +7671,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
         <v>946</v>
       </c>
@@ -7659,7 +7679,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
         <v>948</v>
       </c>
@@ -7667,7 +7687,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
         <v>950</v>
       </c>
@@ -7675,7 +7695,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
         <v>952</v>
       </c>
@@ -7683,7 +7703,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
         <v>954</v>
       </c>
@@ -7691,7 +7711,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
         <v>956</v>
       </c>
@@ -7699,7 +7719,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
         <v>958</v>
       </c>
@@ -7707,7 +7727,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
         <v>960</v>
       </c>
@@ -7715,7 +7735,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
         <v>962</v>
       </c>
@@ -7723,7 +7743,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
         <v>964</v>
       </c>
@@ -7731,7 +7751,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
         <v>966</v>
       </c>
@@ -7739,7 +7759,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="485">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
         <v>968</v>
       </c>
@@ -7747,7 +7767,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" s="1" t="s">
         <v>970</v>
       </c>
@@ -7755,7 +7775,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="487">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" s="1" t="s">
         <v>972</v>
       </c>
@@ -7763,7 +7783,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" s="1" t="s">
         <v>974</v>
       </c>
@@ -7771,7 +7791,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="489">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
         <v>976</v>
       </c>
@@ -7779,7 +7799,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" s="1" t="s">
         <v>978</v>
       </c>
@@ -7787,7 +7807,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
         <v>980</v>
       </c>
@@ -7795,7 +7815,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="492">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" s="1" t="s">
         <v>982</v>
       </c>
@@ -7803,7 +7823,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" s="1" t="s">
         <v>984</v>
       </c>
@@ -7811,7 +7831,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" s="1" t="s">
         <v>986</v>
       </c>
@@ -7819,7 +7839,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="495">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" s="1" t="s">
         <v>988</v>
       </c>
@@ -7827,7 +7847,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="496">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" s="1" t="s">
         <v>990</v>
       </c>
@@ -7835,7 +7855,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
         <v>992</v>
       </c>
@@ -7843,7 +7863,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
         <v>994</v>
       </c>
@@ -7851,7 +7871,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" s="1" t="s">
         <v>996</v>
       </c>
@@ -7859,7 +7879,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="500">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" s="1" t="s">
         <v>998</v>
       </c>
@@ -7867,7 +7887,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
         <v>1000</v>
       </c>
@@ -7875,7 +7895,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="502">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
         <v>1002</v>
       </c>
@@ -7883,7 +7903,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" s="1" t="s">
         <v>1004</v>
       </c>
@@ -7891,7 +7911,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" s="1" t="s">
         <v>1006</v>
       </c>
@@ -7899,7 +7919,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" s="1" t="s">
         <v>1008</v>
       </c>
@@ -7907,7 +7927,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="506">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" s="1" t="s">
         <v>1010</v>
       </c>
@@ -7915,7 +7935,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="507">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" s="1" t="s">
         <v>1012</v>
       </c>
@@ -7923,7 +7943,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" s="1" t="s">
         <v>1014</v>
       </c>
@@ -7931,7 +7951,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" s="1" t="s">
         <v>1016</v>
       </c>
@@ -7939,7 +7959,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="510">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" s="1" t="s">
         <v>1018</v>
       </c>
@@ -7947,7 +7967,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="511">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" s="1" t="s">
         <v>1020</v>
       </c>
@@ -7955,7 +7975,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" s="1" t="s">
         <v>1022</v>
       </c>
@@ -7963,7 +7983,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="513">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" s="1" t="s">
         <v>1024</v>
       </c>
@@ -7971,7 +7991,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="514">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" s="1" t="s">
         <v>1026</v>
       </c>
@@ -7979,7 +7999,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A515" s="1" t="s">
         <v>1028</v>
       </c>
@@ -7987,7 +8007,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="516">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" s="1" t="s">
         <v>1030</v>
       </c>
@@ -7995,7 +8015,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" s="1" t="s">
         <v>1032</v>
       </c>
@@ -8003,7 +8023,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A518" s="1" t="s">
         <v>1034</v>
       </c>
@@ -8011,7 +8031,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A519" s="1" t="s">
         <v>1036</v>
       </c>
@@ -8019,7 +8039,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A520" s="1" t="s">
         <v>1038</v>
       </c>
@@ -8027,7 +8047,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="521">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A521" s="1" t="s">
         <v>1040</v>
       </c>
@@ -8035,7 +8055,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="522">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A522" s="1" t="s">
         <v>1042</v>
       </c>
@@ -8043,7 +8063,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A523" s="1" t="s">
         <v>1044</v>
       </c>
@@ -8051,7 +8071,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="524">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A524" s="1" t="s">
         <v>1046</v>
       </c>
@@ -8059,7 +8079,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" s="1" t="s">
         <v>1048</v>
       </c>
@@ -8067,7 +8087,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="526">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A526" s="1" t="s">
         <v>1050</v>
       </c>
@@ -8075,7 +8095,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A527" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8083,7 +8103,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A528" s="1" t="s">
         <v>1054</v>
       </c>
@@ -8091,7 +8111,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="529">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" s="1" t="s">
         <v>1056</v>
       </c>
@@ -8099,7 +8119,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="530">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A530" s="1" t="s">
         <v>1058</v>
       </c>
@@ -8107,7 +8127,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" s="1" t="s">
         <v>1060</v>
       </c>
@@ -8115,7 +8135,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A532" s="1" t="s">
         <v>1062</v>
       </c>
@@ -8123,7 +8143,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="533">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" s="1" t="s">
         <v>1064</v>
       </c>
@@ -8131,7 +8151,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="534">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" s="1" t="s">
         <v>1066</v>
       </c>
@@ -8139,7 +8159,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="535">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" s="1" t="s">
         <v>1068</v>
       </c>
@@ -8147,7 +8167,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="536">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" s="1" t="s">
         <v>1070</v>
       </c>
@@ -8155,7 +8175,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="537">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" s="1" t="s">
         <v>1072</v>
       </c>
@@ -8163,7 +8183,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="538">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A538" s="1" t="s">
         <v>1074</v>
       </c>
@@ -8171,7 +8191,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="539">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A539" s="1" t="s">
         <v>1076</v>
       </c>
@@ -8179,7 +8199,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="540">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" s="1" t="s">
         <v>1078</v>
       </c>
@@ -8187,7 +8207,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="541">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A541" s="1" t="s">
         <v>1080</v>
       </c>
@@ -8195,7 +8215,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="542">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" s="1" t="s">
         <v>1082</v>
       </c>
@@ -8203,7 +8223,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="543">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A543" s="1" t="s">
         <v>1084</v>
       </c>
@@ -8211,7 +8231,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="544">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A544" s="1" t="s">
         <v>1086</v>
       </c>
@@ -8219,7 +8239,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="545">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A545" s="1" t="s">
         <v>1088</v>
       </c>
@@ -8227,7 +8247,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="546">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A546" s="1" t="s">
         <v>1090</v>
       </c>
@@ -8235,7 +8255,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="547">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A547" s="1" t="s">
         <v>1092</v>
       </c>
@@ -8243,7 +8263,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="548">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A548" s="1" t="s">
         <v>1094</v>
       </c>
@@ -8251,7 +8271,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="549">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A549" s="1" t="s">
         <v>1096</v>
       </c>
@@ -8259,7 +8279,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="550">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A550" s="1" t="s">
         <v>1098</v>
       </c>
@@ -8267,7 +8287,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="551">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A551" s="1" t="s">
         <v>1100</v>
       </c>
@@ -8275,7 +8295,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="552">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A552" s="1" t="s">
         <v>1102</v>
       </c>
@@ -8283,7 +8303,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="553">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A553" s="1" t="s">
         <v>1104</v>
       </c>
@@ -8291,7 +8311,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="554">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A554" s="1" t="s">
         <v>1106</v>
       </c>
@@ -8299,7 +8319,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="555">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A555" s="1" t="s">
         <v>1108</v>
       </c>
@@ -8307,7 +8327,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="556">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A556" s="1" t="s">
         <v>1110</v>
       </c>
@@ -8315,7 +8335,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="557">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A557" s="1" t="s">
         <v>1112</v>
       </c>
@@ -8323,7 +8343,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="558">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A558" s="1" t="s">
         <v>1114</v>
       </c>
@@ -8331,7 +8351,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="559">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A559" s="1" t="s">
         <v>1116</v>
       </c>
@@ -8339,7 +8359,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="560">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A560" s="1" t="s">
         <v>1118</v>
       </c>
@@ -8347,7 +8367,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="561">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A561" s="1" t="s">
         <v>1120</v>
       </c>
@@ -8355,7 +8375,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="562">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A562" s="1" t="s">
         <v>1122</v>
       </c>
@@ -8363,7 +8383,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="563">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" s="1" t="s">
         <v>1124</v>
       </c>
@@ -8371,7 +8391,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="564">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" s="1" t="s">
         <v>1126</v>
       </c>
@@ -8379,7 +8399,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="565">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A565" s="1" t="s">
         <v>1128</v>
       </c>
@@ -8387,7 +8407,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="566">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" s="1" t="s">
         <v>1130</v>
       </c>
@@ -8395,7 +8415,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="567">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A567" s="1" t="s">
         <v>1132</v>
       </c>
@@ -8403,7 +8423,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="568">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A568" s="1" t="s">
         <v>1134</v>
       </c>
@@ -8411,7 +8431,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="569">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A569" s="1" t="s">
         <v>1136</v>
       </c>
@@ -8419,7 +8439,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="570">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A570" s="1" t="s">
         <v>1138</v>
       </c>
@@ -8427,7 +8447,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="571">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A571" s="1" t="s">
         <v>1140</v>
       </c>
@@ -8435,7 +8455,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="572">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A572" s="1" t="s">
         <v>1142</v>
       </c>
@@ -8443,7 +8463,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="573">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A573" s="1" t="s">
         <v>1144</v>
       </c>
@@ -8451,7 +8471,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="574">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A574" s="1" t="s">
         <v>1146</v>
       </c>
@@ -8459,7 +8479,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="575">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A575" s="1" t="s">
         <v>1148</v>
       </c>
@@ -8467,7 +8487,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="576">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" s="1" t="s">
         <v>1150</v>
       </c>
@@ -8475,7 +8495,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="577">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A577" s="1" t="s">
         <v>1152</v>
       </c>
@@ -8483,7 +8503,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="578">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A578" s="1" t="s">
         <v>1154</v>
       </c>
@@ -8491,7 +8511,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="579">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A579" s="1" t="s">
         <v>1156</v>
       </c>
@@ -8499,7 +8519,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="580">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A580" s="1" t="s">
         <v>1158</v>
       </c>
@@ -8507,7 +8527,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="581">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" s="1" t="s">
         <v>1160</v>
       </c>
@@ -8515,7 +8535,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="582">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A582" s="1" t="s">
         <v>1162</v>
       </c>
@@ -8523,7 +8543,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="583">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A583" s="1" t="s">
         <v>1164</v>
       </c>
@@ -8531,7 +8551,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="584">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A584" s="1" t="s">
         <v>1166</v>
       </c>
@@ -8539,7 +8559,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="585">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A585" s="1" t="s">
         <v>1168</v>
       </c>
@@ -8547,7 +8567,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="586">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A586" s="1" t="s">
         <v>1170</v>
       </c>
@@ -8555,7 +8575,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="587">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A587" s="1" t="s">
         <v>1172</v>
       </c>
@@ -8563,7 +8583,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="588">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A588" s="1" t="s">
         <v>1174</v>
       </c>
@@ -8571,7 +8591,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="589">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A589" s="1" t="s">
         <v>1176</v>
       </c>
@@ -8579,7 +8599,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="590">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A590" s="1" t="s">
         <v>1178</v>
       </c>
@@ -8587,7 +8607,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="591">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A591" s="1" t="s">
         <v>1180</v>
       </c>
@@ -8595,7 +8615,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="592">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A592" s="1" t="s">
         <v>1182</v>
       </c>
@@ -8603,7 +8623,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="593">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A593" s="1" t="s">
         <v>1184</v>
       </c>
@@ -8611,7 +8631,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="594">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A594" s="1" t="s">
         <v>1186</v>
       </c>
@@ -8619,7 +8639,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="595">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A595" s="1" t="s">
         <v>1188</v>
       </c>
@@ -8627,7 +8647,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="596">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A596" s="1" t="s">
         <v>1190</v>
       </c>
@@ -8635,7 +8655,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="597">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A597" s="1" t="s">
         <v>1192</v>
       </c>
@@ -8643,7 +8663,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="598">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" s="1" t="s">
         <v>1194</v>
       </c>
@@ -8651,7 +8671,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="599">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A599" s="1" t="s">
         <v>1196</v>
       </c>
@@ -8659,7 +8679,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="600">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" s="1" t="s">
         <v>1198</v>
       </c>
@@ -8668,6 +8688,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>